--- a/folder2/test/test.xlsx
+++ b/folder2/test/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
@@ -11,8 +11,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>tets2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,12 +363,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/folder2/test/test.xlsx
+++ b/folder2/test/test.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>tets2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,17 +367,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/folder2/test/test.xlsx
+++ b/folder2/test/test.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>tets2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>test3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -367,20 +371,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/folder2/test/test.xlsx
+++ b/folder2/test/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6456" uniqueCount="2154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6466" uniqueCount="2155">
   <si>
     <t>tets2</t>
     <phoneticPr fontId="1"/>
@@ -6481,6 +6481,10 @@
   </si>
   <si>
     <t>tets2153</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6824,15 +6828,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D2153"/>
+  <dimension ref="B2:N2153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2109" workbookViewId="0">
-      <selection activeCell="D2151" sqref="D2151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -6842,8 +6846,38 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -6854,7 +6888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -6865,7 +6899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:14">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -6876,7 +6910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:14">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -6887,7 +6921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:14">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -6898,7 +6932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:14">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -6909,7 +6943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:14">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -6920,7 +6954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:14">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -6931,7 +6965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:14">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -6942,7 +6976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:14">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -6953,7 +6987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:14">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -6964,7 +6998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:14">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -6975,7 +7009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:14">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -6986,7 +7020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:14">
       <c r="B16" t="s">
         <v>16</v>
       </c>

--- a/folder2/test/test.xlsx
+++ b/folder2/test/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="7">
   <si>
     <t>tets2</t>
     <phoneticPr fontId="1"/>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N5"/>
+  <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -463,6 +463,94 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>2</v>
       </c>
     </row>

--- a/folder2/test/test.xlsx
+++ b/folder2/test/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="8">
   <si>
     <t>tets2</t>
     <phoneticPr fontId="1"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -387,7 +391,7 @@
   <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -530,6 +534,9 @@
       </c>
       <c r="D11" t="s">
         <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:14">

--- a/folder2/test/test.xlsx
+++ b/folder2/test/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="8">
   <si>
     <t>tets2</t>
     <phoneticPr fontId="1"/>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N13"/>
+  <dimension ref="B2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -558,6 +558,622 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
         <v>2</v>
       </c>
     </row>

--- a/folder2/test/test.xlsx
+++ b/folder2/test/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="12">
   <si>
     <t>tets2</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +44,22 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -446,6 +462,18 @@
       </c>
       <c r="D3" t="s">
         <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:14">

--- a/folder2/test/test.xlsx
+++ b/folder2/test/test.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,14 +354,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N69"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
